--- a/Affy/ARI/ARI_znormed_results.xlsx
+++ b/Affy/ARI/ARI_znormed_results.xlsx
@@ -487,19 +487,19 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.2610012569162791</v>
+        <v>0.4300532569681106</v>
       </c>
       <c r="C2">
+        <v>0.6381869306858614</v>
+      </c>
+      <c r="D2">
+        <v>0.2030773565271132</v>
+      </c>
+      <c r="E2">
         <v>0.1267143271622446</v>
       </c>
-      <c r="D2">
-        <v>0.2325718259086036</v>
-      </c>
-      <c r="E2">
-        <v>0.2332593552326623</v>
-      </c>
       <c r="F2">
-        <v>0.05813885685408116</v>
+        <v>0.1083892220473013</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.03040360789480337</v>
+        <v>0.1040336513182604</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,28 +516,28 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.5371947963514515</v>
+        <v>0.2912603251506227</v>
       </c>
       <c r="C3">
-        <v>0.1920594010308674</v>
+        <v>0.4555899203304116</v>
       </c>
       <c r="D3">
-        <v>0.4219566000670919</v>
+        <v>0.500702505273356</v>
       </c>
       <c r="E3">
-        <v>0.6657186931124481</v>
+        <v>0.6478556975768642</v>
       </c>
       <c r="F3">
-        <v>0.03707988014006901</v>
+        <v>0.01985587814474775</v>
       </c>
       <c r="G3">
-        <v>0.01178581846185834</v>
+        <v>0.01503155108693894</v>
       </c>
       <c r="H3">
         <v>0.005031856978481451</v>
       </c>
       <c r="I3">
-        <v>0.2432109781612311</v>
+        <v>0.2305284408284464</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -545,28 +545,28 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1147433234473211</v>
+        <v>0.0647272092679665</v>
       </c>
       <c r="C4">
-        <v>0.03988698174685373</v>
+        <v>0.08963759379215461</v>
       </c>
       <c r="D4">
-        <v>0.1745693403172301</v>
+        <v>0.09848339444296765</v>
       </c>
       <c r="E4">
-        <v>0.06877993034376798</v>
+        <v>0.03446581790823694</v>
       </c>
       <c r="F4">
-        <v>0.09919493425577527</v>
+        <v>0.07896354873098892</v>
       </c>
       <c r="G4">
-        <v>0.1308843482629975</v>
+        <v>0.08514855128525896</v>
       </c>
       <c r="H4">
-        <v>0.109339000276911</v>
+        <v>0.009206583418526912</v>
       </c>
       <c r="I4">
-        <v>0.1508425418345376</v>
+        <v>0.2032957249758403</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -574,28 +574,28 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.4669043959206921</v>
+        <v>0.03060995832026178</v>
       </c>
       <c r="C5">
-        <v>0.5528910934392076</v>
+        <v>0.4134696853263975</v>
       </c>
       <c r="D5">
-        <v>0.8856892418626756</v>
+        <v>0.4173858467448348</v>
       </c>
       <c r="E5">
-        <v>0.249394582635733</v>
+        <v>0.2090704852622445</v>
       </c>
       <c r="F5">
         <v>0.07698366186352119</v>
       </c>
       <c r="G5">
-        <v>0.06377086857981945</v>
+        <v>0.07698366186352119</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001996623260858557</v>
+        <v>-0.0205976685375932</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,28 +603,28 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.05475594493116399</v>
+        <v>0.06755528627688583</v>
       </c>
       <c r="C6">
-        <v>0.267483562462642</v>
+        <v>0.235664965475833</v>
       </c>
       <c r="D6">
-        <v>0.1684652278177458</v>
+        <v>0.1412429378531074</v>
       </c>
       <c r="E6">
-        <v>0.5244055068836045</v>
+        <v>0.257045890512026</v>
       </c>
       <c r="F6">
-        <v>0.002386634844868803</v>
+        <v>0.05026381560677583</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="I6">
-        <v>0.4378698224852071</v>
+        <v>0.0961587382345459</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -632,28 +632,28 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>0.07530545416893164</v>
+        <v>-0.01338623961886766</v>
       </c>
       <c r="C7">
-        <v>-0.03419232522344588</v>
+        <v>0.09277803310310895</v>
       </c>
       <c r="D7">
-        <v>0.1793448875391355</v>
+        <v>-0.003494602780150706</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.01481582475515261</v>
       </c>
       <c r="F7">
-        <v>0.04314653356237635</v>
+        <v>-0.01262653256239572</v>
       </c>
       <c r="G7">
-        <v>0.01074200418158157</v>
+        <v>0.0270446635730858</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.01280175566934875</v>
+        <v>-0.0490897192811718</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,28 +661,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.026865042357019</v>
+        <v>0.3192404076366557</v>
       </c>
       <c r="C8">
-        <v>0.5115416499303485</v>
+        <v>0.4556137930660287</v>
       </c>
       <c r="D8">
-        <v>0.2787757866146262</v>
+        <v>0.1518391450736634</v>
       </c>
       <c r="E8">
-        <v>0.3281502977617414</v>
+        <v>0.2995143080226295</v>
       </c>
       <c r="F8">
-        <v>-0.01092653503262762</v>
+        <v>-0.003810412510248724</v>
       </c>
       <c r="G8">
-        <v>-0.01701423217529257</v>
+        <v>-0.003358557855611708</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0599223617841954</v>
+        <v>0.03875833670253555</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -690,16 +690,16 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.03262389462271713</v>
+        <v>0.09079775386990885</v>
       </c>
       <c r="C9">
-        <v>0.01277732025654452</v>
+        <v>0.1906086956521739</v>
       </c>
       <c r="D9">
-        <v>0.2692766043763788</v>
+        <v>0.09397813753978128</v>
       </c>
       <c r="E9">
-        <v>-0.1098102290955418</v>
+        <v>0.1274412973524069</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.06660991700361743</v>
+        <v>0.425048904774555</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -719,16 +719,16 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.01964223079621187</v>
+        <v>0.1357636706473916</v>
       </c>
       <c r="C10">
-        <v>0.08571428571428572</v>
+        <v>-0.01508485229415466</v>
       </c>
       <c r="D10">
         <v>0.03097252324687125</v>
       </c>
       <c r="E10">
-        <v>-0.1144744083654377</v>
+        <v>-0.00678179402922467</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1645177926766375</v>
       </c>
       <c r="I10">
-        <v>-0.05762933857236419</v>
+        <v>-0.06427090532135461</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,28 +748,28 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.4669104286939875</v>
+        <v>0.3479565574108277</v>
       </c>
       <c r="C11">
-        <v>0.2921082832647</v>
+        <v>0.3667346279398822</v>
       </c>
       <c r="D11">
-        <v>0.05409384235635298</v>
+        <v>0.01673303901252364</v>
       </c>
       <c r="E11">
-        <v>0.2791317189675031</v>
+        <v>0.1654908557075328</v>
       </c>
       <c r="F11">
-        <v>0.03819061709765455</v>
+        <v>0.267064606741573</v>
       </c>
       <c r="G11">
-        <v>0.396218466652405</v>
+        <v>0.4361055656714126</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1740663829528759</v>
+        <v>0.2027503702696708</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -777,10 +777,10 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.7147083685545225</v>
+        <v>0.3739460370994941</v>
       </c>
       <c r="C12">
-        <v>-0.02704987320371931</v>
+        <v>0.04454621149042463</v>
       </c>
       <c r="D12">
         <v>-0.02704987320371931</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.005728314238952386</v>
+        <v>0.02302631578947371</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -806,28 +806,28 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.3567567567567567</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="C13">
         <v>0.3567567567567567</v>
       </c>
       <c r="D13">
-        <v>0.07046070460704609</v>
+        <v>0.07297297297297292</v>
       </c>
       <c r="E13">
-        <v>0.2411924119241192</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="F13">
-        <v>0.6376021798365122</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6376021798365122</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.08450704225352125</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -835,28 +835,28 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.02606310013717431</v>
+        <v>0.08835616438356159</v>
       </c>
       <c r="C14">
-        <v>0.01650618982118298</v>
+        <v>-0.01712328767123293</v>
       </c>
       <c r="D14">
-        <v>0.1863013698630137</v>
+        <v>-0.002054794520548004</v>
       </c>
       <c r="E14">
-        <v>0.08895705521472383</v>
+        <v>-0.03125000000000002</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-0.0368852459016391</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.09662576687116577</v>
+        <v>-0.1016566265060242</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -864,28 +864,28 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.2844062947067239</v>
+        <v>0.2361035948975647</v>
       </c>
       <c r="C15">
-        <v>0.3209720972097209</v>
+        <v>0.4743097800655124</v>
       </c>
       <c r="D15">
-        <v>0.4640522875816993</v>
+        <v>0.1881925522252498</v>
       </c>
       <c r="E15">
-        <v>0.2230961744726492</v>
+        <v>0.3415634948708878</v>
       </c>
       <c r="F15">
-        <v>0.1021253699219801</v>
+        <v>0.03383685800604227</v>
       </c>
       <c r="G15">
-        <v>0.09046793760831888</v>
+        <v>0.09124805800103572</v>
       </c>
       <c r="H15">
-        <v>-0.003760552570990001</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.08341675008341677</v>
+        <v>0.2936329588014981</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -893,28 +893,28 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.2351938105891279</v>
+        <v>0.3347833066793463</v>
       </c>
       <c r="C16">
-        <v>0.0980923014785449</v>
+        <v>0.07506651050544082</v>
       </c>
       <c r="D16">
-        <v>0.2597884571557473</v>
+        <v>0.4625020015806031</v>
       </c>
       <c r="E16">
-        <v>0.04626706333144472</v>
+        <v>-0.006931881543836312</v>
       </c>
       <c r="F16">
-        <v>0.05077010961532242</v>
+        <v>0.1015716846978238</v>
       </c>
       <c r="G16">
-        <v>0.0744146227687561</v>
+        <v>0.05903039068493754</v>
       </c>
       <c r="H16">
-        <v>-0.002496060501262048</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.08814065053690916</v>
+        <v>0.06975112068370014</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -922,28 +922,28 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.01093034364550841</v>
+        <v>0.007513019721676731</v>
       </c>
       <c r="C17">
-        <v>-0.01720430107526882</v>
+        <v>-0.07526881720430102</v>
       </c>
       <c r="D17">
-        <v>0.1026940292205051</v>
+        <v>0.1268575266560322</v>
       </c>
       <c r="E17">
-        <v>-0.03812265550030537</v>
+        <v>-0.07606706859833832</v>
       </c>
       <c r="F17">
-        <v>-0.08430921162379468</v>
+        <v>-0.0683102208525939</v>
       </c>
       <c r="G17">
-        <v>-0.0770400405473896</v>
+        <v>-0.0461798583958576</v>
       </c>
       <c r="H17">
-        <v>-0.01725703905540418</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>-0.04975428189246565</v>
+        <v>0.06448875689435726</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -951,28 +951,28 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.04322876853108122</v>
+        <v>0.04347010049952089</v>
       </c>
       <c r="C18">
-        <v>0.08510560871710722</v>
+        <v>0.08575866630720322</v>
       </c>
       <c r="D18">
+        <v>0.03441228604967895</v>
+      </c>
+      <c r="E18">
+        <v>0.03403622967768067</v>
+      </c>
+      <c r="F18">
         <v>0.07379190862354047</v>
       </c>
-      <c r="E18">
-        <v>0.01899253161528389</v>
-      </c>
-      <c r="F18">
-        <v>0.02685543723276319</v>
-      </c>
       <c r="G18">
-        <v>0.02891295783279457</v>
+        <v>0.04243496252205133</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.004116510690518683</v>
       </c>
       <c r="I18">
-        <v>0.1264300962318289</v>
+        <v>0.1731200172646994</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -980,28 +980,28 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4512022057876709</v>
+        <v>0.4253259016328846</v>
       </c>
       <c r="C19">
-        <v>0.3447725389387025</v>
+        <v>0.4344161159136785</v>
       </c>
       <c r="D19">
-        <v>0.2421229091672481</v>
+        <v>0.5430970743035366</v>
       </c>
       <c r="E19">
-        <v>0.2594340020528946</v>
+        <v>0.3547427597884241</v>
       </c>
       <c r="F19">
-        <v>-0.0005068509652922978</v>
+        <v>-0.002065805046665021</v>
       </c>
       <c r="G19">
-        <v>0.01540569863231314</v>
+        <v>0.019972916490203</v>
       </c>
       <c r="H19">
-        <v>0.001500029001155596</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2549233948489467</v>
+        <v>0.3584307522579702</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1009,16 +1009,16 @@
         <v>29</v>
       </c>
       <c r="B20">
+        <v>-0.01927710843373487</v>
+      </c>
+      <c r="C20">
         <v>0.01614832535885164</v>
       </c>
-      <c r="C20">
-        <v>0.02880180011250702</v>
-      </c>
       <c r="D20">
-        <v>0.2780692153828736</v>
+        <v>0.1931710997924921</v>
       </c>
       <c r="E20">
-        <v>-0.009395973154362382</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0.000446162998215441</v>
@@ -1038,16 +1038,16 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.004728243286962144</v>
+        <v>0.01931837524220034</v>
       </c>
       <c r="C21">
-        <v>-0.01243816254416922</v>
+        <v>0.01096977864089497</v>
       </c>
       <c r="D21">
-        <v>0.01680333090303324</v>
+        <v>-0.01489429774628533</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.004835692820480729</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01096977864089497</v>
+        <v>0.01584586462328555</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.03852861366228554</v>
+        <v>0.004263202512879448</v>
       </c>
       <c r="C22">
-        <v>-0.01241676905229798</v>
+        <v>0.00372855376539616</v>
       </c>
       <c r="D22">
-        <v>0.09157149503609299</v>
+        <v>0.09759228247671256</v>
       </c>
       <c r="E22">
-        <v>0.01869791929319447</v>
+        <v>-0.003560845240907797</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>-0.008272632452480092</v>
       </c>
       <c r="G22">
-        <v>-0.002397954904833591</v>
+        <v>-0.006264478707435987</v>
       </c>
       <c r="H22">
-        <v>-0.001110707509114604</v>
+        <v>-0.004807365766138682</v>
       </c>
       <c r="I22">
-        <v>-0.003441115759242146</v>
+        <v>0.00539284590237468</v>
       </c>
     </row>
   </sheetData>

--- a/Affy/ARI/ARI_znormed_results.xlsx
+++ b/Affy/ARI/ARI_znormed_results.xlsx
@@ -487,28 +487,28 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>0.4300532569681106</v>
+        <v>0.2441796148600009</v>
       </c>
       <c r="C2">
-        <v>0.6381869306858614</v>
+        <v>0.2709451266360003</v>
       </c>
       <c r="D2">
-        <v>0.2030773565271132</v>
+        <v>0.2832171326991849</v>
       </c>
       <c r="E2">
-        <v>0.1267143271622446</v>
+        <v>0.1236843391033204</v>
       </c>
       <c r="F2">
-        <v>0.1083892220473013</v>
+        <v>2.098249872947822e-05</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002886430198490097</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1040336513182604</v>
+        <v>0.1315043819868716</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,28 +516,28 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>0.2912603251506227</v>
+        <v>0.43641003959022</v>
       </c>
       <c r="C3">
-        <v>0.4555899203304116</v>
+        <v>0.4454654031769008</v>
       </c>
       <c r="D3">
-        <v>0.500702505273356</v>
+        <v>0.4805446723183179</v>
       </c>
       <c r="E3">
-        <v>0.6478556975768642</v>
+        <v>0.4846645295777308</v>
       </c>
       <c r="F3">
-        <v>0.01985587814474775</v>
+        <v>0.01471780306933036</v>
       </c>
       <c r="G3">
-        <v>0.01503155108693894</v>
+        <v>0.01888336747370044</v>
       </c>
       <c r="H3">
-        <v>0.005031856978481451</v>
+        <v>0.002832418874963363</v>
       </c>
       <c r="I3">
-        <v>0.2305284408284464</v>
+        <v>0.2938837073462704</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -545,28 +545,28 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0647272092679665</v>
+        <v>0.1052959186525455</v>
       </c>
       <c r="C4">
-        <v>0.08963759379215461</v>
+        <v>0.092720817789123</v>
       </c>
       <c r="D4">
-        <v>0.09848339444296765</v>
+        <v>0.1276329402842669</v>
       </c>
       <c r="E4">
-        <v>0.03446581790823694</v>
+        <v>0.09360902643266651</v>
       </c>
       <c r="F4">
-        <v>0.07896354873098892</v>
+        <v>0.039041867824447</v>
       </c>
       <c r="G4">
-        <v>0.08514855128525896</v>
+        <v>0.0186052610646251</v>
       </c>
       <c r="H4">
-        <v>0.009206583418526912</v>
+        <v>0.0118713248525019</v>
       </c>
       <c r="I4">
-        <v>0.2032957249758403</v>
+        <v>0.2798801667023159</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -574,28 +574,28 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.03060995832026178</v>
+        <v>0.3620093113455161</v>
       </c>
       <c r="C5">
-        <v>0.4134696853263975</v>
+        <v>0.4302782106045332</v>
       </c>
       <c r="D5">
-        <v>0.4173858467448348</v>
+        <v>0.7440554998947263</v>
       </c>
       <c r="E5">
-        <v>0.2090704852622445</v>
+        <v>0.2793954709228979</v>
       </c>
       <c r="F5">
-        <v>0.07698366186352119</v>
+        <v>0.06967266134623257</v>
       </c>
       <c r="G5">
-        <v>0.07698366186352119</v>
+        <v>0.06449978448481318</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.946873072501761e-05</v>
       </c>
       <c r="I5">
-        <v>-0.0205976685375932</v>
+        <v>0.2812428049244543</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,28 +603,28 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0.06755528627688583</v>
+        <v>0.2518193950264347</v>
       </c>
       <c r="C6">
-        <v>0.235664965475833</v>
+        <v>0.2873349035948565</v>
       </c>
       <c r="D6">
-        <v>0.1412429378531074</v>
+        <v>0.2903488932493763</v>
       </c>
       <c r="E6">
-        <v>0.257045890512026</v>
+        <v>0.3066004834869625</v>
       </c>
       <c r="F6">
-        <v>0.05026381560677583</v>
+        <v>-0.004172545391279731</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.001233248589046877</v>
       </c>
       <c r="H6">
-        <v>0.03056768558951965</v>
+        <v>-0.005441889552753891</v>
       </c>
       <c r="I6">
-        <v>0.0961587382345459</v>
+        <v>0.1832662728029835</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -632,28 +632,28 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.01338623961886766</v>
+        <v>0.1723417221284154</v>
       </c>
       <c r="C7">
-        <v>0.09277803310310895</v>
+        <v>0.2646140158417802</v>
       </c>
       <c r="D7">
-        <v>-0.003494602780150706</v>
+        <v>0.2081245348642062</v>
       </c>
       <c r="E7">
-        <v>-0.01481582475515261</v>
+        <v>0.08517393062825733</v>
       </c>
       <c r="F7">
-        <v>-0.01262653256239572</v>
+        <v>0.006552980946094691</v>
       </c>
       <c r="G7">
-        <v>0.0270446635730858</v>
+        <v>-0.002018042603439749</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.0490897192811718</v>
+        <v>0.03893105996194107</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -661,28 +661,28 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>0.3192404076366557</v>
+        <v>0.169127893446941</v>
       </c>
       <c r="C8">
-        <v>0.4556137930660287</v>
+        <v>0.2435420384335283</v>
       </c>
       <c r="D8">
-        <v>0.1518391450736634</v>
+        <v>0.1460441146913392</v>
       </c>
       <c r="E8">
-        <v>0.2995143080226295</v>
+        <v>0.1327420629386748</v>
       </c>
       <c r="F8">
-        <v>-0.003810412510248724</v>
+        <v>-0.004093884009243143</v>
       </c>
       <c r="G8">
-        <v>-0.003358557855611708</v>
+        <v>0.007512089562805928</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-0.005477020119849204</v>
       </c>
       <c r="I8">
-        <v>0.03875833670253555</v>
+        <v>0.06930688049480892</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -690,28 +690,28 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>0.09079775386990885</v>
+        <v>0.1691986741925131</v>
       </c>
       <c r="C9">
-        <v>0.1906086956521739</v>
+        <v>0.2298274471618408</v>
       </c>
       <c r="D9">
-        <v>0.09397813753978128</v>
+        <v>0.1615040587701844</v>
       </c>
       <c r="E9">
-        <v>0.1274412973524069</v>
+        <v>0.1764358150259536</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.003250244515888894</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-0.0003494212710198733</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-0.0003494212710198733</v>
       </c>
       <c r="I9">
-        <v>0.425048904774555</v>
+        <v>0.2447414694294966</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -719,28 +719,28 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0.1357636706473916</v>
+        <v>0.05964361582921984</v>
       </c>
       <c r="C10">
-        <v>-0.01508485229415466</v>
+        <v>0.04506827842603336</v>
       </c>
       <c r="D10">
-        <v>0.03097252324687125</v>
+        <v>0.05501826433433869</v>
       </c>
       <c r="E10">
-        <v>-0.00678179402922467</v>
+        <v>0.03317785867803522</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>-0.003730725836780743</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-0.004898535049657297</v>
       </c>
       <c r="H10">
-        <v>0.1645177926766375</v>
+        <v>0.04516648516322222</v>
       </c>
       <c r="I10">
-        <v>-0.06427090532135461</v>
+        <v>0.09621792765230155</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,28 +748,28 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>0.3479565574108277</v>
+        <v>0.3620536039736424</v>
       </c>
       <c r="C11">
-        <v>0.3667346279398822</v>
+        <v>0.3839857027252399</v>
       </c>
       <c r="D11">
-        <v>0.01673303901252364</v>
+        <v>0.06401794009818908</v>
       </c>
       <c r="E11">
-        <v>0.1654908557075328</v>
+        <v>0.2993334144612605</v>
       </c>
       <c r="F11">
-        <v>0.267064606741573</v>
+        <v>0.3394486139930556</v>
       </c>
       <c r="G11">
-        <v>0.4361055656714126</v>
+        <v>0.3293577209634179</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01272957295973647</v>
       </c>
       <c r="I11">
-        <v>0.2027503702696708</v>
+        <v>0.2334853413098607</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -777,28 +777,28 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>0.3739460370994941</v>
+        <v>0.1825589268225463</v>
       </c>
       <c r="C12">
-        <v>0.04454621149042463</v>
+        <v>0.1199188950867703</v>
       </c>
       <c r="D12">
-        <v>-0.02704987320371931</v>
+        <v>-0.02105580575245409</v>
       </c>
       <c r="E12">
-        <v>-0.02704987320371931</v>
+        <v>0.01655337666844713</v>
       </c>
       <c r="F12">
-        <v>0.2873900293255132</v>
+        <v>0.3674034650768411</v>
       </c>
       <c r="G12">
-        <v>0.2873900293255132</v>
+        <v>0.2948969640781053</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02302631578947371</v>
+        <v>0.05861602824091622</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -806,28 +806,28 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>0.4878048780487805</v>
+        <v>0.3328748260455577</v>
       </c>
       <c r="C13">
-        <v>0.3567567567567567</v>
+        <v>0.4542529782902616</v>
       </c>
       <c r="D13">
-        <v>0.07297297297297292</v>
+        <v>0.04748954976109888</v>
       </c>
       <c r="E13">
-        <v>0.4878048780487805</v>
+        <v>0.5302186334057649</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.8813665898134563</v>
       </c>
       <c r="G13">
-        <v>0.8076923076923077</v>
+        <v>0.8633597940609492</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-0.03592106690801933</v>
       </c>
       <c r="I13">
-        <v>0.1384615384615385</v>
+        <v>0.369609111747774</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -835,28 +835,28 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>0.08835616438356159</v>
+        <v>0.02367662583747793</v>
       </c>
       <c r="C14">
-        <v>-0.01712328767123293</v>
+        <v>0.009715102500003228</v>
       </c>
       <c r="D14">
-        <v>-0.002054794520548004</v>
+        <v>0.08936957784703535</v>
       </c>
       <c r="E14">
-        <v>-0.03125000000000002</v>
+        <v>0.0292606989572082</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-0.004430334407233256</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>-0.01430441130829186</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.1016566265060242</v>
+        <v>0.0173245956058782</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -864,28 +864,28 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <v>0.2361035948975647</v>
+        <v>0.320278913324026</v>
       </c>
       <c r="C15">
-        <v>0.4743097800655124</v>
+        <v>0.3173981379672328</v>
       </c>
       <c r="D15">
-        <v>0.1881925522252498</v>
+        <v>0.3627066627850122</v>
       </c>
       <c r="E15">
-        <v>0.3415634948708878</v>
+        <v>0.1521301179528569</v>
       </c>
       <c r="F15">
-        <v>0.03383685800604227</v>
+        <v>0.04401591650723541</v>
       </c>
       <c r="G15">
-        <v>0.09124805800103572</v>
+        <v>0.0469126251661441</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>-0.004487909572103132</v>
       </c>
       <c r="I15">
-        <v>0.2936329588014981</v>
+        <v>0.09000350780370572</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -893,28 +893,28 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0.3347833066793463</v>
+        <v>0.2521262050642832</v>
       </c>
       <c r="C16">
-        <v>0.07506651050544082</v>
+        <v>0.1218827541999651</v>
       </c>
       <c r="D16">
-        <v>0.4625020015806031</v>
+        <v>0.3589142586451656</v>
       </c>
       <c r="E16">
-        <v>-0.006931881543836312</v>
+        <v>0.03287868564552629</v>
       </c>
       <c r="F16">
-        <v>0.1015716846978238</v>
+        <v>0.0789301827047531</v>
       </c>
       <c r="G16">
-        <v>0.05903039068493754</v>
+        <v>0.08828925379584897</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-0.00243398136175441</v>
       </c>
       <c r="I16">
-        <v>0.06975112068370014</v>
+        <v>0.05470275879873905</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -922,28 +922,28 @@
         <v>26</v>
       </c>
       <c r="B17">
-        <v>0.007513019721676731</v>
+        <v>0.01979965843809746</v>
       </c>
       <c r="C17">
-        <v>-0.07526881720430102</v>
+        <v>-0.02737308724948001</v>
       </c>
       <c r="D17">
-        <v>0.1268575266560322</v>
+        <v>0.05139655152264301</v>
       </c>
       <c r="E17">
-        <v>-0.07606706859833832</v>
+        <v>-0.003869448165235119</v>
       </c>
       <c r="F17">
-        <v>-0.0683102208525939</v>
+        <v>-0.07767581934065262</v>
       </c>
       <c r="G17">
-        <v>-0.0461798583958576</v>
+        <v>-0.07624142192485632</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.06448875689435726</v>
+        <v>-0.02185663452176867</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -951,28 +951,28 @@
         <v>27</v>
       </c>
       <c r="B18">
-        <v>0.04347010049952089</v>
+        <v>0.05591838324080294</v>
       </c>
       <c r="C18">
-        <v>0.08575866630720322</v>
+        <v>0.06229021975365176</v>
       </c>
       <c r="D18">
-        <v>0.03441228604967895</v>
+        <v>0.08701516132344944</v>
       </c>
       <c r="E18">
-        <v>0.03403622967768067</v>
+        <v>0.04034990513137563</v>
       </c>
       <c r="F18">
-        <v>0.07379190862354047</v>
+        <v>0.04012464364545788</v>
       </c>
       <c r="G18">
-        <v>0.04243496252205133</v>
+        <v>0.03588438656714391</v>
       </c>
       <c r="H18">
-        <v>0.004116510690518683</v>
+        <v>0.001575539282679986</v>
       </c>
       <c r="I18">
-        <v>0.1731200172646994</v>
+        <v>0.07150739806017034</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -980,28 +980,28 @@
         <v>28</v>
       </c>
       <c r="B19">
-        <v>0.4253259016328846</v>
+        <v>0.4337175404293207</v>
       </c>
       <c r="C19">
-        <v>0.4344161159136785</v>
+        <v>0.4170362872425323</v>
       </c>
       <c r="D19">
-        <v>0.5430970743035366</v>
+        <v>0.407968486687829</v>
       </c>
       <c r="E19">
-        <v>0.3547427597884241</v>
+        <v>0.421944251077043</v>
       </c>
       <c r="F19">
-        <v>-0.002065805046665021</v>
+        <v>0.008512843833564801</v>
       </c>
       <c r="G19">
-        <v>0.019972916490203</v>
+        <v>0.006424348416916927</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.000105378694907802</v>
       </c>
       <c r="I19">
-        <v>0.3584307522579702</v>
+        <v>0.2984487029824205</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.01927710843373487</v>
+        <v>0.126508521390823</v>
       </c>
       <c r="C20">
-        <v>0.01614832535885164</v>
+        <v>0.07103880776318179</v>
       </c>
       <c r="D20">
-        <v>0.1931710997924921</v>
+        <v>0.1817033916299397</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.01646504686390145</v>
       </c>
       <c r="F20">
-        <v>0.000446162998215441</v>
+        <v>0.001161371404639304</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0008868310533230311</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.003409933283914061</v>
+        <v>0.04716141019092528</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1038,28 +1038,28 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.01931837524220034</v>
+        <v>0.01187179983286933</v>
       </c>
       <c r="C21">
-        <v>0.01096977864089497</v>
+        <v>-0.004335224890153711</v>
       </c>
       <c r="D21">
-        <v>-0.01489429774628533</v>
+        <v>0.03839352870508928</v>
       </c>
       <c r="E21">
-        <v>0.004835692820480729</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>-0.0002335342011560254</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>-0.0007047381916259879</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01584586462328555</v>
+        <v>0.01952377702262797</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1067,28 +1067,28 @@
         <v>31</v>
       </c>
       <c r="B22">
-        <v>0.004263202512879448</v>
+        <v>0.02433541945624722</v>
       </c>
       <c r="C22">
-        <v>0.00372855376539616</v>
+        <v>0.01266679415959165</v>
       </c>
       <c r="D22">
-        <v>0.09759228247671256</v>
+        <v>0.07399630047446423</v>
       </c>
       <c r="E22">
-        <v>-0.003560845240907797</v>
+        <v>0.007304810676640981</v>
       </c>
       <c r="F22">
-        <v>-0.008272632452480092</v>
+        <v>0.0004525766877792639</v>
       </c>
       <c r="G22">
-        <v>-0.006264478707435987</v>
+        <v>0.001461600628535776</v>
       </c>
       <c r="H22">
-        <v>-0.004807365766138682</v>
+        <v>-0.0007563186433196211</v>
       </c>
       <c r="I22">
-        <v>0.00539284590237468</v>
+        <v>0.006685583880737483</v>
       </c>
     </row>
   </sheetData>
